--- a/meta/en/4-2-2.xlsx
+++ b/meta/en/4-2-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The participation rate in organized learning (one year before the official primary entry age), by sex as defined as the percentage of children in the given age range who participate in one or more organized learning programme, including programmes which offer a combination of education and care. Participation in early childhood and in primary education are both included. The age range will vary by country depending on the official age for entry to primary education.</t>
   </si>
   <si>
@@ -157,17 +153,28 @@
 Law of the Kyrgyz Republic №92 dated 30 April 2003 «On education»
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,30 +249,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -576,7 +587,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +607,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -659,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -725,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
